--- a/final_data_pipeline/output/325212longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/325212longform_elec_options_nowhp.xlsx
@@ -546,7 +546,7 @@
         <v>29</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="J2">
         <v>8000</v>
@@ -561,10 +561,10 @@
         <v>3133069.840437805</v>
       </c>
       <c r="N2">
-        <v>1.800714285714286</v>
+        <v>2.017497406510892</v>
       </c>
       <c r="O2">
-        <v>1.963947368421052</v>
+        <v>2.228623569098047</v>
       </c>
       <c r="P2">
         <v>391.6337300547257</v>
@@ -752,7 +752,7 @@
         <v>29</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="J6">
         <v>8000</v>
@@ -767,10 +767,10 @@
         <v>766737.5198862833</v>
       </c>
       <c r="N6">
-        <v>1.800714285714286</v>
+        <v>1.983015294974508</v>
       </c>
       <c r="O6">
-        <v>1.963947368421052</v>
+        <v>2.18606997558991</v>
       </c>
       <c r="P6">
         <v>95.84218998578541</v>
@@ -805,7 +805,7 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="J7">
         <v>8000</v>
@@ -820,10 +820,10 @@
         <v>1771159.693720966</v>
       </c>
       <c r="N7">
-        <v>1.800714285714286</v>
+        <v>1.867546171126113</v>
       </c>
       <c r="O7">
-        <v>1.963947368421052</v>
+        <v>2.044826120875009</v>
       </c>
       <c r="P7">
         <v>221.3949617151208</v>
@@ -964,7 +964,7 @@
         <v>29</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="J10">
         <v>8000</v>
@@ -979,10 +979,10 @@
         <v>2795851.227066055</v>
       </c>
       <c r="N10">
-        <v>1.800714285714286</v>
+        <v>1.983015294974508</v>
       </c>
       <c r="O10">
-        <v>1.963947368421052</v>
+        <v>2.18606997558991</v>
       </c>
       <c r="P10">
         <v>349.4814033832569</v>
